--- a/biology/Botanique/Macrocnemum/Macrocnemum.xlsx
+++ b/biology/Botanique/Macrocnemum/Macrocnemum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Macrocnemum est un genre de plantes de la famille des Rubiaceae.
 </t>
@@ -511,16 +523,18 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (7 août 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (7 août 2018) :
 Macrocnemum grandiflorum (Wedd.) Wedd.
 Macrocnemum humboldtianum (Schult.) Wedd.
 Macrocnemum jamaicense L.
 Macrocnemum roseum (Ruiz &amp; Pav.) Wedd.
 Macrocnemum stylocarpum H.Karst.
 Macrocnemum tortuosum Herzog
-Selon World Checklist of Selected Plant Families (WCSP)  (7 août 2018)[3] et The Plant List            (7 août 2018)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (7 août 2018) et The Plant List            (7 août 2018) :
 Macrocnemum grandiflorum (Wedd.) Wedd., Ann. Sci. Nat., Bot., sér. 4 (1854)
 Macrocnemum humboldtianum (Schult.) Wedd., Ann. Sci. Nat., Bot., sér. 4 (1854)
 Macrocnemum jamaicense L. (1759)
@@ -529,7 +543,7 @@
 Macrocnemum rotundatum Standl., Publ. Field Columb. Mus. (1929)
 Macrocnemum stylocarpum H.Karst. (1859)
 Macrocnemum tortuosum Herzog (1909)
-Selon Tropicos                                           (7 août 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 août 2018) (Attention liste brute contenant possiblement des synonymes) :
 Macrocnemum candidissimum Vahl
 Macrocnemum cinchonoides (Wedd.) Wedd.
 Macrocnemum coccineum Vahl
